--- a/documentation/tahap2-system-definition/db-design-system-definition.xlsx
+++ b/documentation/tahap2-system-definition/db-design-system-definition.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -116,8 +111,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,12 +194,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,10 +206,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -283,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,21 +490,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -520,49 +515,49 @@
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -588,377 +583,381 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="4">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="4">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="4"/>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
